--- a/SmartBear/TestData/SamrtBear.xlsx
+++ b/SmartBear/TestData/SamrtBear.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO 7XIN\eclipse-workspace\SmartBearTestCases\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90CC25-BC29-4A5E-9EF5-35E2B61097F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="2796" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{E404409B-6879-40D7-90DF-C3DA99D1540F}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="8925" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,8 @@
     <sheet name="TestCases" sheetId="4" r:id="rId3"/>
     <sheet name="ManualTestCases" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A27:C30"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2962,7 +2957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3485,37 +3480,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DF90F8-4F2A-4B9D-94F8-1A3768E530CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" thickBottom="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="32.109375" style="3" customWidth="1"/>
-    <col min="12" max="26" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="23.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" style="3" customWidth="1"/>
+    <col min="12" max="26" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3565,7 +3560,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="70.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3591,7 +3586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="70.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="70.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3617,7 +3612,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="70.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="82.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -3799,7 +3794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="82.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="82.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -4605,10 +4600,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="160.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="160.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -4634,7 +4629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:8" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>468</v>
@@ -4661,7 +4656,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>469</v>
       </c>
@@ -4687,7 +4682,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="88.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>470</v>
       </c>
@@ -4739,7 +4734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="100.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>472</v>
       </c>
@@ -4765,7 +4760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="94.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="94.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>473</v>
       </c>
@@ -4791,7 +4786,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="68.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>474</v>
       </c>
@@ -4817,7 +4812,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="91.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="91.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>475</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="94.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="94.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>476</v>
       </c>
@@ -4869,7 +4864,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>477</v>
       </c>
@@ -4895,7 +4890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>478</v>
       </c>
@@ -5022,7 +5017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="100.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>483</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:8" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5077,7 +5072,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>485</v>
       </c>
@@ -5129,7 +5124,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="94.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="94.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>487</v>
       </c>
@@ -5155,7 +5150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>488</v>
       </c>
@@ -5207,7 +5202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="109.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="109.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>490</v>
       </c>
@@ -5259,7 +5254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="110.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>492</v>
       </c>
@@ -5285,7 +5280,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="107.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="107.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>493</v>
       </c>
@@ -5363,7 +5358,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="116.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="116.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>496</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="118.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="118.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>497</v>
       </c>
@@ -5441,7 +5436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="115.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>499</v>
       </c>
@@ -5493,7 +5488,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="106.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="106.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>501</v>
       </c>
@@ -5519,7 +5514,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="107.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="107.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>502</v>
       </c>
@@ -5597,7 +5592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="115.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>505</v>
       </c>
@@ -5623,7 +5618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="115.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>506</v>
       </c>
@@ -5649,7 +5644,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="115.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>507</v>
       </c>
@@ -5675,7 +5670,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="119.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="119.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>508</v>
       </c>
@@ -5727,7 +5722,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="109.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="109.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>510</v>
       </c>
@@ -5753,7 +5748,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="118.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="118.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>511</v>
       </c>
@@ -5779,7 +5774,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>512</v>
       </c>
@@ -5805,7 +5800,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>513</v>
       </c>
@@ -5831,7 +5826,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="113.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="113.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>514</v>
       </c>
@@ -5883,7 +5878,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="113.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="113.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>516</v>
       </c>
@@ -5909,7 +5904,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="121.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>517</v>
       </c>
@@ -5961,7 +5956,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="109.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="109.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>519</v>
       </c>
@@ -5987,7 +5982,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="118.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="118.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>520</v>
       </c>
@@ -6039,7 +6034,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="112.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="112.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>522</v>
       </c>
@@ -6091,7 +6086,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>524</v>
       </c>
@@ -6169,7 +6164,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="136.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="136.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>527</v>
       </c>
@@ -6195,7 +6190,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="121.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="121.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>528</v>
       </c>
@@ -6247,7 +6242,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="124.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>530</v>
       </c>
@@ -6299,7 +6294,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="124.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>532</v>
       </c>
@@ -6325,7 +6320,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>533</v>
       </c>
@@ -6351,7 +6346,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>534</v>
       </c>
@@ -6377,7 +6372,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>535</v>
       </c>
@@ -6403,7 +6398,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>536</v>
       </c>
@@ -6429,7 +6424,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>537</v>
       </c>
@@ -6455,7 +6450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>538</v>
       </c>
@@ -6481,7 +6476,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>539</v>
       </c>
@@ -6507,7 +6502,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>540</v>
       </c>
@@ -6533,7 +6528,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>541</v>
       </c>
@@ -6559,7 +6554,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>542</v>
       </c>
@@ -6585,7 +6580,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>543</v>
       </c>
@@ -6611,7 +6606,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="122.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>544</v>
       </c>
@@ -6637,10 +6632,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="13"/>
     </row>
-    <row r="124" spans="1:8" ht="118.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="118.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>484</v>
       </c>
@@ -6666,7 +6661,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="118.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="118.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>485</v>
       </c>
@@ -6692,7 +6687,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="118.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="118.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>486</v>
       </c>
@@ -6718,10 +6713,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="56.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B127" s="13"/>
     </row>
-    <row r="128" spans="1:8" ht="152.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="152.44999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>484</v>
       </c>
@@ -6747,10 +6742,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="61.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="13"/>
     </row>
-    <row r="130" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>484</v>
       </c>
@@ -6776,7 +6771,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>485</v>
       </c>
@@ -6802,7 +6797,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>486</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>487</v>
       </c>
@@ -6854,7 +6849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>488</v>
       </c>
@@ -6880,7 +6875,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>489</v>
       </c>
@@ -6906,7 +6901,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>490</v>
       </c>
@@ -6932,7 +6927,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>491</v>
       </c>
@@ -6958,7 +6953,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>492</v>
       </c>
@@ -6984,7 +6979,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>493</v>
       </c>
@@ -7010,7 +7005,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>494</v>
       </c>
@@ -7036,7 +7031,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>495</v>
       </c>
@@ -7062,7 +7057,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>496</v>
       </c>
@@ -7088,7 +7083,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>497</v>
       </c>
@@ -7114,7 +7109,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>498</v>
       </c>
@@ -7140,7 +7135,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>499</v>
       </c>
@@ -7166,7 +7161,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>500</v>
       </c>
@@ -7192,7 +7187,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>501</v>
       </c>
@@ -7218,7 +7213,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>502</v>
       </c>
@@ -7244,7 +7239,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>503</v>
       </c>
@@ -7270,7 +7265,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>504</v>
       </c>
@@ -7296,7 +7291,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>505</v>
       </c>
@@ -7322,7 +7317,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>506</v>
       </c>
@@ -7348,7 +7343,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>507</v>
       </c>
@@ -7374,7 +7369,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>508</v>
       </c>
@@ -7400,7 +7395,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>509</v>
       </c>
@@ -7426,7 +7421,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>510</v>
       </c>
@@ -7452,7 +7447,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>511</v>
       </c>
@@ -7478,7 +7473,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>512</v>
       </c>
@@ -7504,7 +7499,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>513</v>
       </c>
@@ -7530,7 +7525,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>514</v>
       </c>
@@ -7556,7 +7551,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>515</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>516</v>
       </c>
@@ -7608,7 +7603,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>517</v>
       </c>
@@ -7634,7 +7629,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>518</v>
       </c>
@@ -7660,7 +7655,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>519</v>
       </c>
@@ -7686,7 +7681,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>520</v>
       </c>
@@ -7712,7 +7707,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>521</v>
       </c>
@@ -7738,7 +7733,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>522</v>
       </c>
@@ -7764,7 +7759,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>523</v>
       </c>
@@ -7790,7 +7785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>524</v>
       </c>
@@ -7816,7 +7811,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>525</v>
       </c>
@@ -7842,7 +7837,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>526</v>
       </c>
@@ -7868,7 +7863,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>527</v>
       </c>
@@ -7894,7 +7889,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>528</v>
       </c>
@@ -7946,7 +7941,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>530</v>
       </c>
@@ -7972,7 +7967,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>531</v>
       </c>
@@ -7998,7 +7993,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>532</v>
       </c>
@@ -8024,7 +8019,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>533</v>
       </c>
@@ -8050,7 +8045,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>534</v>
       </c>
@@ -8076,7 +8071,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>535</v>
       </c>
@@ -8102,7 +8097,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>536</v>
       </c>
@@ -8128,7 +8123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>537</v>
       </c>
@@ -8154,7 +8149,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>538</v>
       </c>
@@ -8180,7 +8175,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>539</v>
       </c>
@@ -8206,7 +8201,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>540</v>
       </c>
@@ -8232,7 +8227,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>541</v>
       </c>
@@ -8258,7 +8253,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>542</v>
       </c>
@@ -8284,10 +8279,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B189" s="13"/>
     </row>
-    <row r="190" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>484</v>
       </c>
@@ -8313,7 +8308,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>485</v>
       </c>
@@ -8339,7 +8334,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="115.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>486</v>
       </c>
@@ -8365,7 +8360,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B193" s="13"/>
     </row>
     <row r="194" spans="1:8" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8394,830 +8389,830 @@
         <v>439</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="196" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="197" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="198" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="199" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="200" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="201" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="202" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="203" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="204" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="205" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="206" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="207" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="208" spans="1:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1001" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1002" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1003" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1004" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1005" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1006" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1007" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1008" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1009" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1010" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1011" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1012" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="1013" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="1014" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="1015" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="1016" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="1017" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="1018" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="196" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="197" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="199" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="201" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="203" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="207" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:8" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1003" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1004" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1005" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1006" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1007" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1008" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1009" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1010" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1011" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1012" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1013" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9226,26 +9221,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871C50AD-D570-4278-9603-067B9426A00C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9274,7 +9269,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -9303,7 +9298,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -9361,7 +9356,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="53.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -9419,7 +9414,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="53.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -9767,7 +9762,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -10028,7 +10023,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -10057,7 +10052,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -10173,7 +10168,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>316</v>
       </c>
@@ -10202,7 +10197,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>317</v>
       </c>
@@ -10231,7 +10226,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>318</v>
       </c>
@@ -10260,7 +10255,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>319</v>
       </c>
@@ -10289,7 +10284,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>320</v>
       </c>
@@ -10318,7 +10313,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>321</v>
       </c>
@@ -10347,7 +10342,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>322</v>
       </c>
@@ -10376,7 +10371,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="11"/>
       <c r="C40" s="3"/>
@@ -10389,7 +10384,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -10418,7 +10413,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="1048576" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D1048576" t="s">
         <v>552</v>
       </c>
@@ -10429,18 +10424,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BABBB05-F681-4C28-9186-97427B1D2765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="24.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -10475,7 +10470,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>562</v>
       </c>
@@ -10509,36 +10504,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{96B0A1FE-461E-4E65-9569-0F024D1AF69C}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{392EC995-034B-49B4-B7A9-9300CDA8DED8}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{83F45E09-0510-4E2F-8DA2-FFD0DA2197C3}"/>
-    <hyperlink ref="B8" r:id="rId4" display="Praveen@1" xr:uid="{950525A1-4985-4757-B92A-A9FDB2B3974F}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4" display="Praveen@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E7BEFE-32AC-4243-B7B7-00B3F0CA9CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="70.150000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10573,7 +10568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>484</v>
       </c>
@@ -10599,7 +10594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>485</v>
       </c>
@@ -10625,7 +10620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>486</v>
       </c>
@@ -10651,7 +10646,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="79.900000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>487</v>
       </c>
@@ -10677,7 +10672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>488</v>
       </c>
@@ -10703,7 +10698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>489</v>
       </c>
@@ -10729,7 +10724,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>490</v>
       </c>
@@ -10755,7 +10750,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>491</v>
       </c>
@@ -10781,7 +10776,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>492</v>
       </c>
@@ -10807,7 +10802,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>493</v>
       </c>
@@ -10833,7 +10828,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>494</v>
       </c>
@@ -10859,7 +10854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>495</v>
       </c>
@@ -10885,7 +10880,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>496</v>
       </c>
@@ -10911,7 +10906,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>497</v>
       </c>
@@ -10937,7 +10932,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>498</v>
       </c>
@@ -10963,7 +10958,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>499</v>
       </c>
@@ -10989,7 +10984,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>500</v>
       </c>
@@ -11015,7 +11010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>501</v>
       </c>
@@ -11041,7 +11036,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>502</v>
       </c>
@@ -11067,7 +11062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>503</v>
       </c>
@@ -11093,7 +11088,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>504</v>
       </c>
@@ -11119,7 +11114,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>505</v>
       </c>
@@ -11145,7 +11140,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>506</v>
       </c>
@@ -11171,7 +11166,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>507</v>
       </c>
@@ -11197,7 +11192,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>508</v>
       </c>
@@ -11223,7 +11218,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>509</v>
       </c>
@@ -11249,7 +11244,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>510</v>
       </c>
@@ -11275,7 +11270,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>511</v>
       </c>
@@ -11301,7 +11296,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>512</v>
       </c>
@@ -11327,7 +11322,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>513</v>
       </c>
@@ -11353,7 +11348,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>514</v>
       </c>
@@ -11379,7 +11374,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>515</v>
       </c>
@@ -11405,7 +11400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>516</v>
       </c>
@@ -11431,7 +11426,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>517</v>
       </c>
@@ -11457,7 +11452,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>518</v>
       </c>
@@ -11483,7 +11478,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>519</v>
       </c>
@@ -11509,7 +11504,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>520</v>
       </c>
@@ -11535,7 +11530,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>521</v>
       </c>
@@ -11561,7 +11556,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>522</v>
       </c>
@@ -11587,7 +11582,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>523</v>
       </c>
@@ -11613,7 +11608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>524</v>
       </c>
@@ -11639,7 +11634,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>525</v>
       </c>
@@ -11665,7 +11660,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>526</v>
       </c>
@@ -11691,7 +11686,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>527</v>
       </c>
@@ -11717,7 +11712,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>528</v>
       </c>
@@ -11743,7 +11738,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>529</v>
       </c>
@@ -11769,7 +11764,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>530</v>
       </c>
@@ -11795,7 +11790,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="185.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>531</v>
       </c>
@@ -11821,7 +11816,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>532</v>
       </c>
@@ -11847,7 +11842,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>533</v>
       </c>
@@ -11873,7 +11868,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>534</v>
       </c>
@@ -11899,7 +11894,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>535</v>
       </c>
@@ -11925,7 +11920,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>536</v>
       </c>
@@ -11951,7 +11946,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>537</v>
       </c>
@@ -11977,7 +11972,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>538</v>
       </c>
@@ -12003,7 +11998,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>539</v>
       </c>
@@ -12029,7 +12024,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>540</v>
       </c>
@@ -12055,7 +12050,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>541</v>
       </c>
@@ -12081,7 +12076,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>542</v>
       </c>
@@ -12107,7 +12102,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>543</v>
       </c>
@@ -12133,7 +12128,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="106.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>544</v>
       </c>
